--- a/datasets/Dataset_info.xlsx
+++ b/datasets/Dataset_info.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Datasets</t>
   </si>
@@ -75,6 +75,9 @@
     </r>
   </si>
   <si>
+    <t>Games</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -142,7 +145,7 @@
     </r>
   </si>
   <si>
-    <t>Smm</t>
+    <t>MegaMarket</t>
   </si>
   <si>
     <t>Soon</t>
@@ -225,7 +228,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="&quot;Helvetica Neue&quot;"/>
@@ -275,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -298,6 +300,19 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="10"/>
@@ -307,9 +322,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -419,55 +432,55 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1546,167 +1559,169 @@
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="6">
+      <c r="A2" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="11">
+      <c r="A3" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="A4" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="13">
+      <c r="B4" t="s" s="14">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="A5" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="13">
+      <c r="B5" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" t="s" s="12">
+        <v>10</v>
+      </c>
       <c r="B6" t="s" s="15">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="13">
+      <c r="A7" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
+      <c r="B7" t="s" s="14">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="13">
+      <c r="A8" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
+      <c r="B8" t="s" s="14">
+        <v>15</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>15</v>
+      <c r="A9" t="s" s="12">
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s" s="13">
+      <c r="A10" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
+      <c r="B10" t="s" s="14">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s" s="11">
+      <c r="A11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
+      <c r="B11" t="s" s="12">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s" s="12">
+      <c r="A12" t="s" s="12">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="11">
-        <v>22</v>
+      <c r="A13" t="s" s="12">
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="17">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="13">
+      <c r="A14" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
+      <c r="B14" t="s" s="14">
+        <v>26</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s" s="13">
+      <c r="A15" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
+      <c r="B15" t="s" s="14">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" ht="13.65" customHeight="1">
-      <c r="A16" t="s" s="11">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s" s="11">
-        <v>20</v>
+      <c r="A16" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s" s="12">
+        <v>21</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>

--- a/datasets/Dataset_info.xlsx
+++ b/datasets/Dataset_info.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Datasets</t>
   </si>
@@ -148,7 +148,15 @@
     <t>MegaMarket</t>
   </si>
   <si>
-    <t>Soon</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://www.kaggle.com/datasets/alexxl/megamarket</t>
+    </r>
   </si>
   <si>
     <t>Sports</t>
@@ -197,6 +205,17 @@
   </si>
   <si>
     <t>Zvuk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://www.kaggle.com/datasets/alexxl/zvuk-dataset</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1721,7 +1740,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="s" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
@@ -1738,10 +1757,12 @@
     <hyperlink ref="B8" r:id="rId7" location="" tooltip="" display="https://grouplens.org/datasets/movielens/1m/"/>
     <hyperlink ref="B9" r:id="rId8" location="" tooltip="" display="https://github.com/otto-de/recsys-dataset?tab=readme-ov-file#citation"/>
     <hyperlink ref="B10" r:id="rId9" location="" tooltip="" display="https://www.kaggle.com/datasets/retailrocket/ecommerce-dataset"/>
-    <hyperlink ref="B12" r:id="rId10" location="" tooltip="" display="https://cseweb.ucsd.edu/~jmcauley/datasets.html#amazon_reviews"/>
-    <hyperlink ref="B13" r:id="rId11" location="" tooltip="" display="https://github.com/kang205/SASRec/tree/master"/>
-    <hyperlink ref="B14" r:id="rId12" location="" tooltip="" display="https://www.yelp.com/dataset"/>
-    <hyperlink ref="B15" r:id="rId13" location="" tooltip="" display="https://2015.recsyschallenge.com/challenge.html "/>
+    <hyperlink ref="B11" r:id="rId10" location="" tooltip="" display="https://www.kaggle.com/datasets/alexxl/megamarket"/>
+    <hyperlink ref="B12" r:id="rId11" location="" tooltip="" display="https://cseweb.ucsd.edu/~jmcauley/datasets.html#amazon_reviews"/>
+    <hyperlink ref="B13" r:id="rId12" location="" tooltip="" display="https://github.com/kang205/SASRec/tree/master"/>
+    <hyperlink ref="B14" r:id="rId13" location="" tooltip="" display="https://www.yelp.com/dataset"/>
+    <hyperlink ref="B15" r:id="rId14" location="" tooltip="" display="https://2015.recsyschallenge.com/challenge.html "/>
+    <hyperlink ref="B16" r:id="rId15" location="" tooltip="" display="https://www.kaggle.com/datasets/alexxl/zvuk-dataset"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
